--- a/dist/document/dest/2020/10/doctors/212.xlsx
+++ b/dist/document/dest/2020/10/doctors/212.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>45</v>
       </c>
-      <c r="C2" s="1">
-        <v>168075</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>90</v>
       </c>
-      <c r="C3" s="1">
-        <v>196650</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>90</v>
       </c>
-      <c r="C4" s="1">
-        <v>300150</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>90</v>
       </c>
-      <c r="C5" s="1">
-        <v>356850</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -449,7 +437,7 @@
         <v>315</v>
       </c>
       <c r="C6" s="1">
-        <v>1021725</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/212.xlsx
+++ b/dist/document/dest/2020/10/doctors/212.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,50 +399,117 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B2" s="1">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>284900</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>154800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>90</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>98175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Lactomin Plus (Probiotics)</v>
       </c>
       <c r="B5" s="1">
         <v>90</v>
       </c>
+      <c r="C5" s="1">
+        <v>507150</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1">
+        <v>256520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Nevol (Nebivolol 2.5mg)</v>
+      </c>
+      <c r="B8" s="1">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1">
+        <v>148925</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Phytilax</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B10" s="1">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B6" s="1">
-        <v>315</v>
-      </c>
-      <c r="C6" s="1">
-        <v>NaN</v>
+      <c r="B11" s="1">
+        <v>425</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2163570</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
   </ignoredErrors>
 </worksheet>
 </file>